--- a/data/input/DOC_20220809_EN687_wData20220917_edited.xlsx
+++ b/data/input/DOC_20220809_EN687_wData20220917_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DCC2D3-965C-48A4-8343-B43C8EF01282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B795155-7CEB-45F0-9EB0-C5358DB1BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wNPOCandTNdata" sheetId="2" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="74">
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>L4</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>LTER Station</t>
   </si>
   <si>
-    <t>Cast Type</t>
-  </si>
-  <si>
     <t>Cast</t>
   </si>
   <si>
@@ -244,6 +238,15 @@
   </si>
   <si>
     <t>Notes during lab analysis</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>quality_flag</t>
   </si>
 </sst>
 </file>
@@ -289,12 +292,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -335,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -372,6 +381,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,74 +750,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="53.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R1" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6">
         <v>20220729</v>
@@ -819,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -831,24 +849,27 @@
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="10">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="10">
         <v>84.280837152055199</v>
       </c>
-      <c r="O2" s="10">
+      <c r="Q2" s="10">
         <v>4.7765979363262803</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6">
         <v>20220729</v>
@@ -863,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -872,27 +893,30 @@
         <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="10">
+        <v>22</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="10">
         <v>86.080279057486393</v>
       </c>
-      <c r="O3" s="10">
+      <c r="Q3" s="10">
         <v>6.2774740958701898</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>20220729</v>
@@ -907,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -916,30 +940,33 @@
         <v>15</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="10">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="10">
         <v>92.803775169252404</v>
       </c>
-      <c r="O4" s="10">
+      <c r="Q4" s="10">
         <v>5.3840954294750096</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6">
         <v>20220730</v>
@@ -951,10 +978,10 @@
         <v>46</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
@@ -966,27 +993,30 @@
         <v>25</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="10">
+        <v>68</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="10">
         <v>75.897390755434003</v>
       </c>
-      <c r="O5" s="10">
+      <c r="Q5" s="10">
         <v>6.7221781431424699</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6">
         <v>20220730</v>
@@ -998,10 +1028,10 @@
         <v>46</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G6" s="6">
         <v>2</v>
@@ -1013,27 +1043,30 @@
         <v>14</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="10">
+        <v>68</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="10">
         <v>76.329814779219802</v>
       </c>
-      <c r="O6" s="10">
+      <c r="Q6" s="10">
         <v>5.4357128635333902</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>20220730</v>
@@ -1045,10 +1078,10 @@
         <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G7" s="6">
         <v>2</v>
@@ -1057,30 +1090,33 @@
         <v>16</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="10">
+        <v>68</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="10">
         <v>83.304395808022804</v>
       </c>
-      <c r="O7" s="10">
+      <c r="Q7" s="10">
         <v>6.1067395062924499</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6">
         <v>20220730</v>
@@ -1092,10 +1128,10 @@
         <v>65</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G8" s="6">
         <v>5</v>
@@ -1107,24 +1143,27 @@
         <v>30</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="10">
+        <v>22</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="10">
         <v>82.495344408681603</v>
       </c>
-      <c r="O8" s="10">
+      <c r="Q8" s="10">
         <v>4.9751265288585396</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <v>20220730</v>
@@ -1136,10 +1175,10 @@
         <v>65</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G9" s="6">
         <v>5</v>
@@ -1151,24 +1190,27 @@
         <v>16</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="10">
+        <v>22</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="10">
         <v>81.574699712879607</v>
       </c>
-      <c r="O9" s="10">
+      <c r="Q9" s="10">
         <v>4.5582164845407904</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
         <v>20220730</v>
@@ -1180,10 +1222,10 @@
         <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6">
         <v>5</v>
@@ -1192,27 +1234,30 @@
         <v>18</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="10">
+        <v>22</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="10">
         <v>89.567569571887901</v>
       </c>
-      <c r="O10" s="10">
+      <c r="Q10" s="10">
         <v>4.9830676725598302</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6">
         <v>20220730</v>
@@ -1224,10 +1269,10 @@
         <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G11" s="6">
         <v>6</v>
@@ -1239,24 +1284,27 @@
         <v>71</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="10">
+        <v>22</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="10">
         <v>61.892432049597602</v>
       </c>
-      <c r="O11" s="10">
+      <c r="Q11" s="10">
         <v>11.8720098334294</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>20220730</v>
@@ -1268,10 +1316,10 @@
         <v>76</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G12" s="6">
         <v>6</v>
@@ -1283,24 +1331,27 @@
         <v>33</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="10">
+        <v>22</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="10">
         <v>70.150335987700402</v>
       </c>
-      <c r="O12" s="10">
+      <c r="Q12" s="10">
         <v>7.1351176156095804</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>20220730</v>
@@ -1312,10 +1363,10 @@
         <v>76</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G13" s="6">
         <v>6</v>
@@ -1324,27 +1375,30 @@
         <v>15</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="10">
+        <v>22</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="10">
         <v>91.576248908183103</v>
       </c>
-      <c r="O13" s="10">
+      <c r="Q13" s="10">
         <v>4.9870382444104804</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6">
         <v>20220731</v>
@@ -1356,10 +1410,10 @@
         <v>486</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G14" s="6">
         <v>7</v>
@@ -1371,24 +1425,27 @@
         <v>483</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="10">
+        <v>22</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="10">
         <v>45.655607414544299</v>
       </c>
-      <c r="O14" s="10">
+      <c r="Q14" s="10">
         <v>26.2732739357198</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6">
         <v>20220731</v>
@@ -1400,10 +1457,10 @@
         <v>486</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6">
         <v>7</v>
@@ -1415,27 +1472,30 @@
         <v>93</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N15" s="10">
+        <v>26</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="10">
         <v>56.424360523016098</v>
       </c>
-      <c r="O15" s="10">
+      <c r="Q15" s="10">
         <v>12.8249470775843</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6">
         <v>20220731</v>
@@ -1447,10 +1507,10 @@
         <v>486</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G16" s="6">
         <v>7</v>
@@ -1462,24 +1522,27 @@
         <v>31</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="10">
+        <v>22</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="10">
         <v>69.243640453956004</v>
       </c>
-      <c r="O16" s="10">
+      <c r="Q16" s="10">
         <v>5.6342414560656602</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6">
         <v>20220731</v>
@@ -1491,10 +1554,10 @@
         <v>486</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G17" s="6">
         <v>7</v>
@@ -1503,27 +1566,30 @@
         <v>19</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="10">
+        <v>22</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="10">
         <v>87.405449452958905</v>
       </c>
-      <c r="O17" s="10">
+      <c r="Q17" s="10">
         <v>4.7686567926249896</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6">
         <v>20220731</v>
@@ -1535,10 +1601,10 @@
         <v>486</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6">
         <v>7</v>
@@ -1547,30 +1613,33 @@
         <v>19</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="10">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="10">
         <v>84.099498045306305</v>
       </c>
-      <c r="O18" s="10">
+      <c r="Q18" s="10">
         <v>5.7732114708382403</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6">
         <v>20220731</v>
@@ -1582,10 +1651,10 @@
         <v>1579</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G19" s="6">
         <v>10</v>
@@ -1597,24 +1666,27 @@
         <v>500</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="10">
+        <v>22</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="10">
         <v>45.934590655696397</v>
       </c>
-      <c r="O19" s="10">
+      <c r="Q19" s="10">
         <v>21.659469445269998</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6">
         <v>20220731</v>
@@ -1626,10 +1698,10 @@
         <v>1579</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G20" s="6">
         <v>10</v>
@@ -1641,27 +1713,30 @@
         <v>500</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="10">
+        <v>17</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="10">
         <v>44.4001828293598</v>
       </c>
-      <c r="O20" s="10">
+      <c r="Q20" s="10">
         <v>25.185337248642998</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>20220731</v>
@@ -1673,10 +1748,10 @@
         <v>1579</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G21" s="6">
         <v>10</v>
@@ -1688,24 +1763,27 @@
         <v>90</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="10">
+        <v>22</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="10">
         <v>48.445439826065503</v>
       </c>
-      <c r="O21" s="10">
+      <c r="Q21" s="10">
         <v>19.6821246636487</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6">
         <v>20220731</v>
@@ -1717,10 +1795,10 @@
         <v>1579</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G22" s="6">
         <v>10</v>
@@ -1732,24 +1810,27 @@
         <v>37</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" s="10">
+        <v>22</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="10">
         <v>61.878482887540002</v>
       </c>
-      <c r="O22" s="10">
+      <c r="Q22" s="10">
         <v>4.6217456341511101</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6">
         <v>20220731</v>
@@ -1761,10 +1842,10 @@
         <v>1579</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G23" s="6">
         <v>10</v>
@@ -1773,27 +1854,30 @@
         <v>19</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="10">
+        <v>22</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="10">
         <v>78.4500874119759</v>
       </c>
-      <c r="O23" s="10">
+      <c r="Q23" s="10">
         <v>4.3080704579501301</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="6">
         <v>20220801</v>
@@ -1805,10 +1889,10 @@
         <v>148</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6">
         <v>13</v>
@@ -1820,24 +1904,27 @@
         <v>90</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="10">
+        <v>22</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="10">
         <v>60.204583440627303</v>
       </c>
-      <c r="O24" s="10">
+      <c r="Q24" s="10">
         <v>10.760249715248699</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="6">
         <v>20220801</v>
@@ -1849,10 +1936,10 @@
         <v>148</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G25" s="6">
         <v>13</v>
@@ -1864,24 +1951,27 @@
         <v>32</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" s="10">
+        <v>22</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="10">
         <v>66.579350500953197</v>
       </c>
-      <c r="O25" s="10">
+      <c r="Q25" s="10">
         <v>6.0193869255782504</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="6">
         <v>20220801</v>
@@ -1893,10 +1983,10 @@
         <v>148</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G26" s="6">
         <v>13</v>
@@ -1905,27 +1995,30 @@
         <v>19</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="10">
+        <v>22</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="10">
         <v>91.771537176989597</v>
       </c>
-      <c r="O26" s="10">
+      <c r="Q26" s="10">
         <v>5.6818883182734004</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="6">
         <v>20220801</v>
@@ -1937,10 +2030,10 @@
         <v>133</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G27" s="6">
         <v>16</v>
@@ -1952,24 +2045,27 @@
         <v>90</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="10">
+        <v>22</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" s="10">
         <v>55.671105771905403</v>
       </c>
-      <c r="O27" s="10">
+      <c r="Q27" s="10">
         <v>10.9865723107355</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="6">
         <v>20220801</v>
@@ -1981,10 +2077,10 @@
         <v>133</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G28" s="6">
         <v>16</v>
@@ -1996,24 +2092,27 @@
         <v>36</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" s="10">
+        <v>22</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="10">
         <v>69.927149394778695</v>
       </c>
-      <c r="O28" s="10">
+      <c r="Q28" s="10">
         <v>3.9904247098985102</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="6">
         <v>20220801</v>
@@ -2025,10 +2124,10 @@
         <v>133</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G29" s="6">
         <v>16</v>
@@ -2037,27 +2136,30 @@
         <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="10">
+        <v>22</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1</v>
+      </c>
+      <c r="N29" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="10">
         <v>85.815244978391902</v>
       </c>
-      <c r="O29" s="10">
+      <c r="Q29" s="10">
         <v>5.1696845495401602</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="6">
         <v>20220802</v>
@@ -2069,10 +2171,10 @@
         <v>94</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G30" s="6">
         <v>18</v>
@@ -2084,24 +2186,27 @@
         <v>88</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="10">
+        <v>22</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="10">
         <v>60.539363330009898</v>
       </c>
-      <c r="O30" s="10">
+      <c r="Q30" s="10">
         <v>14.238470656414</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="6">
         <v>20220802</v>
@@ -2113,10 +2218,10 @@
         <v>94</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G31" s="6">
         <v>18</v>
@@ -2128,24 +2233,27 @@
         <v>19</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="10">
+        <v>22</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="10">
         <v>82.509293570739302</v>
       </c>
-      <c r="O31" s="10">
+      <c r="Q31" s="10">
         <v>4.1651298713268998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="6">
         <v>20220802</v>
@@ -2157,10 +2265,10 @@
         <v>94</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G32" s="6">
         <v>18</v>
@@ -2169,27 +2277,30 @@
         <v>19</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="10">
+        <v>22</v>
+      </c>
+      <c r="L32" s="6">
+        <v>1</v>
+      </c>
+      <c r="N32" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="10">
         <v>83.290446645965204</v>
       </c>
-      <c r="O32" s="10">
+      <c r="Q32" s="10">
         <v>5.5389477316501701</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="6">
         <v>20220802</v>
@@ -2201,10 +2312,10 @@
         <v>125</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G33" s="6">
         <v>21</v>
@@ -2216,27 +2327,30 @@
         <v>95</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N33" s="10">
+        <v>27</v>
+      </c>
+      <c r="L33" s="6">
+        <v>1</v>
+      </c>
+      <c r="N33" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="10">
         <v>52.769680063923303</v>
       </c>
-      <c r="O33" s="10">
+      <c r="Q33" s="10">
         <v>16.406402886866299</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="6">
         <v>20220802</v>
@@ -2248,10 +2362,10 @@
         <v>125</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G34" s="6">
         <v>21</v>
@@ -2263,27 +2377,30 @@
         <v>31</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N34" s="10">
+        <v>27</v>
+      </c>
+      <c r="L34" s="6">
+        <v>1</v>
+      </c>
+      <c r="N34" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" s="10">
         <v>73.386541585065004</v>
       </c>
-      <c r="O34" s="10">
+      <c r="Q34" s="10">
         <v>3.9983658535997999</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" s="6">
         <v>20220802</v>
@@ -2295,10 +2412,10 @@
         <v>125</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G35" s="6">
         <v>21</v>
@@ -2307,30 +2424,33 @@
         <v>18</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35" s="10">
+        <v>27</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="10">
         <v>88.186602528184906</v>
       </c>
-      <c r="O35" s="10">
+      <c r="Q35" s="10">
         <v>4.86395051704047</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="6">
         <v>20220802</v>
@@ -2342,10 +2462,10 @@
         <v>53</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G36" s="6">
         <v>22</v>
@@ -2357,24 +2477,27 @@
         <v>23</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" s="10">
+        <v>22</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" s="10">
         <v>77.487595230001105</v>
       </c>
-      <c r="O36" s="10">
+      <c r="Q36" s="10">
         <v>5.1299788310337098</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B37" s="6">
         <v>20220802</v>
@@ -2386,10 +2509,10 @@
         <v>53</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G37" s="6">
         <v>22</v>
@@ -2398,33 +2521,36 @@
         <v>14</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="8">
-        <v>44612</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N37" s="10">
+        <v>22</v>
+      </c>
+      <c r="L37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="8">
+        <v>44612</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="10">
         <v>87.419398615016604</v>
       </c>
-      <c r="O37" s="10">
+      <c r="Q37" s="10">
         <v>4.5899810593459502</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L39:O65">
-    <sortCondition ref="M39:M65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N39:Q65">
+    <sortCondition ref="O39:O65"/>
   </sortState>
-  <conditionalFormatting sqref="K4 A2:J27 A30:J37 H28:H29 J28:J29 I28">
+  <conditionalFormatting sqref="K4:L4 A2:J2 A30:E37 H28:H29 J28:J29 I28 G30:J37 A3:E27 G3:J27 F3:F37">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -2444,7 +2570,7 @@
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:G29">
+  <conditionalFormatting sqref="A28:E29 G28:G29">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/data/input/DOC_20220809_EN687_wData20220917_edited.xlsx
+++ b/data/input/DOC_20220809_EN687_wData20220917_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B795155-7CEB-45F0-9EB0-C5358DB1BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F88FB7-689F-4DE0-8AC1-99F9291B9151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22365" yWindow="1920" windowWidth="21345" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wNPOCandTNdata" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="75">
   <si>
     <t>L1</t>
   </si>
@@ -246,7 +246,10 @@
     <t>cast</t>
   </si>
   <si>
-    <t>quality_flag</t>
+    <t>quality_flag_C</t>
+  </si>
+  <si>
+    <t>quality_flag_N</t>
   </si>
 </sst>
 </file>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,13 +764,13 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="53.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -804,23 +807,26 @@
       <c r="L1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="M1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -854,20 +860,23 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="N2" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="10">
+      <c r="Q2" s="10">
         <v>84.280837152055199</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>4.7765979363262803</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -901,20 +910,23 @@
       <c r="L3" s="6">
         <v>1</v>
       </c>
-      <c r="N3" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>86.080279057486393</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>6.2774740958701898</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -951,20 +963,23 @@
       <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="N4" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O4" s="9" t="s">
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>92.803775169252404</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="R4" s="10">
         <v>5.3840954294750096</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1001,20 +1016,23 @@
       <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>75.897390755434003</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="R5" s="10">
         <v>6.7221781431424699</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1051,20 +1069,23 @@
       <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="N6" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>76.329814779219802</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="R6" s="10">
         <v>5.4357128635333902</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1101,20 +1122,23 @@
       <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="N7" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>83.304395808022804</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="R7" s="10">
         <v>6.1067395062924499</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -1148,20 +1172,23 @@
       <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="N8" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>82.495344408681603</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>4.9751265288585396</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1195,20 +1222,23 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="N9" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>81.574699712879607</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="R9" s="10">
         <v>4.5582164845407904</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1242,20 +1272,23 @@
       <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="N10" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>89.567569571887901</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="R10" s="10">
         <v>4.9830676725598302</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1289,20 +1322,23 @@
       <c r="L11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O11" s="9" t="s">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="P11" s="10">
+      <c r="Q11" s="10">
         <v>61.892432049597602</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="R11" s="10">
         <v>11.8720098334294</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -1336,20 +1372,23 @@
       <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="N12" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O12" s="9" t="s">
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="10">
+      <c r="Q12" s="10">
         <v>70.150335987700402</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>7.1351176156095804</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1383,20 +1422,23 @@
       <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O13" s="9" t="s">
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>91.576248908183103</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="R13" s="10">
         <v>4.9870382444104804</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1430,20 +1472,23 @@
       <c r="L14" s="6">
         <v>1</v>
       </c>
-      <c r="N14" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O14" s="9" t="s">
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="10">
+      <c r="Q14" s="10">
         <v>45.655607414544299</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="R14" s="10">
         <v>26.2732739357198</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1480,20 +1525,23 @@
       <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="N15" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O15" s="9" t="s">
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>56.424360523016098</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
         <v>12.8249470775843</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1527,20 +1575,23 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="N16" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O16" s="9" t="s">
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="10">
+      <c r="Q16" s="10">
         <v>69.243640453956004</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="R16" s="10">
         <v>5.6342414560656602</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -1574,20 +1625,23 @@
       <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="N17" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O17" s="9" t="s">
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="10">
+      <c r="Q17" s="10">
         <v>87.405449452958905</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="R17" s="10">
         <v>4.7686567926249896</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1624,20 +1678,23 @@
       <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="N18" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O18" s="9" t="s">
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="10">
+      <c r="Q18" s="10">
         <v>84.099498045306305</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="R18" s="10">
         <v>5.7732114708382403</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1671,20 +1728,23 @@
       <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="N19" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O19" s="9" t="s">
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P19" s="10">
+      <c r="Q19" s="10">
         <v>45.934590655696397</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="R19" s="10">
         <v>21.659469445269998</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1721,20 +1781,23 @@
       <c r="L20" s="6">
         <v>1</v>
       </c>
-      <c r="N20" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O20" s="9" t="s">
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P20" s="10">
+      <c r="Q20" s="10">
         <v>44.4001828293598</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="R20" s="10">
         <v>25.185337248642998</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1768,20 +1831,23 @@
       <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="N21" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O21" s="9" t="s">
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="10">
+      <c r="Q21" s="10">
         <v>48.445439826065503</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="R21" s="10">
         <v>19.6821246636487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1815,20 +1881,23 @@
       <c r="L22" s="6">
         <v>1</v>
       </c>
-      <c r="N22" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O22" s="9" t="s">
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P22" s="10">
+      <c r="Q22" s="10">
         <v>61.878482887540002</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="R22" s="10">
         <v>4.6217456341511101</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
@@ -1862,20 +1931,23 @@
       <c r="L23" s="6">
         <v>1</v>
       </c>
-      <c r="N23" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O23" s="9" t="s">
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="10">
+      <c r="Q23" s="10">
         <v>78.4500874119759</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="R23" s="10">
         <v>4.3080704579501301</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -1909,20 +1981,23 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="N24" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O24" s="9" t="s">
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="10">
+      <c r="Q24" s="10">
         <v>60.204583440627303</v>
       </c>
-      <c r="Q24" s="10">
+      <c r="R24" s="10">
         <v>10.760249715248699</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
@@ -1956,20 +2031,23 @@
       <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="N25" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O25" s="9" t="s">
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P25" s="10">
+      <c r="Q25" s="10">
         <v>66.579350500953197</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="R25" s="10">
         <v>6.0193869255782504</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
@@ -2003,20 +2081,23 @@
       <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="N26" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O26" s="9" t="s">
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P26" s="10">
+      <c r="Q26" s="10">
         <v>91.771537176989597</v>
       </c>
-      <c r="Q26" s="10">
+      <c r="R26" s="10">
         <v>5.6818883182734004</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
@@ -2050,20 +2131,23 @@
       <c r="L27" s="6">
         <v>1</v>
       </c>
-      <c r="N27" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O27" s="9" t="s">
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P27" s="10">
+      <c r="Q27" s="10">
         <v>55.671105771905403</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="R27" s="10">
         <v>10.9865723107355</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
@@ -2097,20 +2181,23 @@
       <c r="L28" s="6">
         <v>1</v>
       </c>
-      <c r="N28" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O28" s="9" t="s">
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P28" s="10">
+      <c r="Q28" s="10">
         <v>69.927149394778695</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="R28" s="10">
         <v>3.9904247098985102</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
@@ -2144,20 +2231,23 @@
       <c r="L29" s="6">
         <v>1</v>
       </c>
-      <c r="N29" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O29" s="9" t="s">
+      <c r="M29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="10">
+      <c r="Q29" s="10">
         <v>85.815244978391902</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="R29" s="10">
         <v>5.1696845495401602</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>20</v>
       </c>
@@ -2191,20 +2281,23 @@
       <c r="L30" s="6">
         <v>1</v>
       </c>
-      <c r="N30" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O30" s="9" t="s">
+      <c r="M30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P30" s="10">
+      <c r="Q30" s="10">
         <v>60.539363330009898</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="R30" s="10">
         <v>14.238470656414</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
@@ -2238,20 +2331,23 @@
       <c r="L31" s="6">
         <v>1</v>
       </c>
-      <c r="N31" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O31" s="9" t="s">
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P31" s="10">
+      <c r="Q31" s="10">
         <v>82.509293570739302</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="R31" s="10">
         <v>4.1651298713268998</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>20</v>
       </c>
@@ -2285,20 +2381,23 @@
       <c r="L32" s="6">
         <v>1</v>
       </c>
-      <c r="N32" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O32" s="9" t="s">
+      <c r="M32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P32" s="10">
+      <c r="Q32" s="10">
         <v>83.290446645965204</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="R32" s="10">
         <v>5.5389477316501701</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>20</v>
       </c>
@@ -2335,20 +2434,23 @@
       <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="N33" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O33" s="9" t="s">
+      <c r="M33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P33" s="10">
+      <c r="Q33" s="10">
         <v>52.769680063923303</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="R33" s="10">
         <v>16.406402886866299</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>20</v>
       </c>
@@ -2385,20 +2487,23 @@
       <c r="L34" s="6">
         <v>1</v>
       </c>
-      <c r="N34" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O34" s="9" t="s">
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="10">
+      <c r="Q34" s="10">
         <v>73.386541585065004</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="R34" s="10">
         <v>3.9983658535997999</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>20</v>
       </c>
@@ -2435,20 +2540,23 @@
       <c r="L35" s="6">
         <v>1</v>
       </c>
-      <c r="N35" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O35" s="9" t="s">
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P35" s="10">
+      <c r="Q35" s="10">
         <v>88.186602528184906</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="R35" s="10">
         <v>4.86395051704047</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>20</v>
       </c>
@@ -2482,20 +2590,23 @@
       <c r="L36" s="6">
         <v>1</v>
       </c>
-      <c r="N36" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O36" s="9" t="s">
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="O36" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P36" s="10">
+      <c r="Q36" s="10">
         <v>77.487595230001105</v>
       </c>
-      <c r="Q36" s="10">
+      <c r="R36" s="10">
         <v>5.1299788310337098</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>20</v>
       </c>
@@ -2529,65 +2640,68 @@
       <c r="L37" s="6">
         <v>1</v>
       </c>
-      <c r="N37" s="8">
-        <v>44612</v>
-      </c>
-      <c r="O37" s="9" t="s">
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="O37" s="8">
+        <v>44612</v>
+      </c>
+      <c r="P37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="10">
+      <c r="Q37" s="10">
         <v>87.419398615016604</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="R37" s="10">
         <v>4.5899810593459502</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N39:Q65">
-    <sortCondition ref="O39:O65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O39:R65">
+    <sortCondition ref="P39:P65"/>
   </sortState>
-  <conditionalFormatting sqref="K4:L4 A2:J2 A30:E37 H28:H29 J28:J29 I28 G30:J37 A3:E27 G3:J27 F3:F37">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+  <conditionalFormatting sqref="A3:F37 G28:H29">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="12">
-      <formula>LEN(TRIM(A2))=0</formula>
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:E29 G28:G29">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:J2 G3:J27 I28 J28:J29 G30:J37 K4:M4">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="6">
-      <formula>LEN(TRIM(A28))=0</formula>
+    <cfRule type="containsBlanks" dxfId="0" priority="12">
+      <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
